--- a/ItemSummary.xlsx
+++ b/ItemSummary.xlsx
@@ -397,17 +397,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Item ▲▼</v>
+        <v>Item</v>
       </c>
       <c r="B1" t="str">
-        <v>Quantity ▲▼</v>
+        <v>Quantity</v>
       </c>
       <c r="C1" t="str">
         <v>Revenue ▼</v>
@@ -415,244 +415,160 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Burgers</v>
+        <v>Lassi</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Chicken Cheese Burger</v>
+        <v>Mango Lassi</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="str">
-        <v>₹360.00</v>
+        <v>₹480.00</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Chicken Borgir</v>
+        <v>Butterscotch Lassi</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="str">
-        <v>₹120.00</v>
+        <v>₹60.00</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Lassi</v>
+        <v>Strawberry Lassi</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <v>₹40.00</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Mango Lassi</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="str">
-        <v>₹180.00</v>
+        <v>Burgers</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Strawberry Lassi</v>
+        <v>Chicken Cheese Burger</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="str">
-        <v>₹40.00</v>
+        <v>₹180.00</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Wraps</v>
+        <v>Chicken Burger</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="str">
+        <v>₹120.00</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Chicken Wrap</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="str">
-        <v>₹180.00</v>
+        <v>Pops</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Veg Wrap</v>
+        <v>Veg Cheese Pops</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="str">
-        <v>₹50.00</v>
+        <v>₹70.00</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Cold Coffee</v>
+        <v>Chicken Cheese Pops</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <v>₹70.00</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Belgian Coffee</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="str">
-        <v>₹120.00</v>
+        <v>Wraps</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>8PM Coffee</v>
+        <v>Chicken Wrap</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="str">
-        <v>₹40.00</v>
+        <v>₹60.00</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Coffee Italia</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="str">
-        <v>₹40.00</v>
+        <v>Milkshakes</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Hard Rock Coffee</v>
+        <v>Oreo Shake</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="str">
-        <v>₹40.00</v>
+        <v>₹50.00</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Juices</v>
+        <v>Banana Shake</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="str">
+        <v>₹50.00</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Weed</v>
+        <v>Vanilla Shake</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="str">
-        <v>₹100.00</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Lime Juice</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" t="str">
-        <v>₹60.00</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Mint Lime</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="str">
-        <v>₹30.00</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Pops</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>Veg Cheese Pops</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="str">
-        <v>₹70.00</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>Milkshakes</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Oreo Shake</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="str">
-        <v>₹50.00</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Vanilla Shake</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="str">
         <v>₹40.00</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>French Fries</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>Peri Peri Fries</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="str">
-        <v>₹20.00</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="5">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C17"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/ItemSummary.xlsx
+++ b/ItemSummary.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,77 +415,83 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Lassi</v>
+        <v>Wraps</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Mango Lassi</v>
+        <v>Chicken Wrap</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="str">
-        <v>₹480.00</v>
+        <v>₹360.00</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Butterscotch Lassi</v>
+        <v>Chicken Schezwan Wrap</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="str">
-        <v>₹60.00</v>
+        <v>₹70.00</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Strawberry Lassi</v>
+        <v>Veg Schezwan Wrap</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="str">
-        <v>₹40.00</v>
+        <v>₹60.00</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Burgers</v>
+        <v>Veg Wrap</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <v>₹50.00</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Chicken Cheese Burger</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="str">
-        <v>₹180.00</v>
+        <v>Burgers</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Chicken Burger</v>
+        <v>Chicken Cheese Burger</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="str">
-        <v>₹120.00</v>
+        <v>₹300.00</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Pops</v>
+        <v>Chicken Burger</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="str">
+        <v>₹240.00</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Veg Cheese Pops</v>
+        <v>Veg Cheese Burger</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -496,79 +502,445 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Chicken Cheese Pops</v>
+        <v>Veg Burger</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="str">
-        <v>₹70.00</v>
+        <v>₹50.00</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Wraps</v>
+        <v>Lassi</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Chicken Wrap</v>
+        <v>Butterscotch Lassi</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="str">
-        <v>₹60.00</v>
+        <v>₹240.00</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Milkshakes</v>
+        <v>Mango Lassi</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="str">
+        <v>₹120.00</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Oreo Shake</v>
+        <v>Strawberry Lassi</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="str">
-        <v>₹50.00</v>
+        <v>₹80.00</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Banana Shake</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="str">
-        <v>₹50.00</v>
+        <v>Pops</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
+        <v>Veg Cheese Pops</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="str">
+        <v>₹140.00</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Cheese Pops Fingers</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="str">
+        <v>₹110.00</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Chicken Fingers</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="str">
+        <v>₹80.00</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Chicken Cheese Pops</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="str">
+        <v>₹70.00</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Ice Cream</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Chocolate Icecream</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="str">
+        <v>₹100.00</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Milkshakes</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Banana Shake</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="str">
+        <v>₹100.00</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Strawberry Shake</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <v>₹50.00</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Oreo Shake</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="str">
+        <v>₹50.00</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Chocolate Shake</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="str">
+        <v>₹50.00</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Black Currant Shake</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="str">
+        <v>₹50.00</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
         <v>Vanilla Shake</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="str">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="str">
         <v>₹40.00</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Momos</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Veg Shezwan Momos</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="str">
+        <v>₹90.00</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Chicken Shezwan Momos</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="str">
+        <v>₹90.00</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Chicken Peri Peri Momos</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="str">
+        <v>₹90.00</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Veg Momos</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="str">
+        <v>₹80.00</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Chicken Momos</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="str">
+        <v>₹75.00</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Boba</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Mango Bubble Tea</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="str">
+        <v>₹80.00</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Grilled Sandwiches</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Paneer Sandwich</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="str">
+        <v>₹70.00</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Chicken Schezwan Sandwich</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="str">
+        <v>₹70.00</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Veg Schezwan Sandwich</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="str">
+        <v>₹60.00</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Chicken Sandwich</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="str">
+        <v>₹60.00</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Veg Sandwich</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="str">
+        <v>₹50.00</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Juices</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Watermelon Juice</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="str">
+        <v>₹40.00</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Mint Lime</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="str">
+        <v>₹30.00</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Lime Juice</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="str">
+        <v>₹20.00</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Cold Coffee</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Hard Rock Coffee</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="str">
+        <v>₹40.00</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Coffee Italia</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="str">
+        <v>₹40.00</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Belgian Coffee</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="str">
+        <v>₹40.00</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>8PM Coffee</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="str">
+        <v>₹40.00</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>French Fries</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Peri Peri Fries</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="str">
+        <v>₹20.00</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="12">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A53:C53"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C54"/>
   </ignoredErrors>
 </worksheet>
 </file>